--- a/COVID19HNHistory.xlsx
+++ b/COVID19HNHistory.xlsx
@@ -188,8 +188,8 @@
   </sheetPr>
   <dimension ref="A1:BW21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AY15" activeCellId="0" sqref="AY15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BA20" activeCellId="0" sqref="BA2:BA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -375,7 +375,9 @@
       <c r="AZ1" s="2" t="n">
         <v>43972</v>
       </c>
-      <c r="BA1" s="2"/>
+      <c r="BA1" s="2" t="n">
+        <v>43973</v>
+      </c>
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
       <c r="BD1" s="2"/>
@@ -552,6 +554,9 @@
       <c r="AZ2" s="0" t="n">
         <v>109</v>
       </c>
+      <c r="BA2" s="0" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -709,6 +714,9 @@
       </c>
       <c r="AZ3" s="0" t="n">
         <v>42</v>
+      </c>
+      <c r="BA3" s="0" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -868,6 +876,9 @@
       <c r="AZ4" s="0" t="n">
         <v>42</v>
       </c>
+      <c r="BA4" s="0" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -1026,6 +1037,9 @@
       <c r="AZ5" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="BA5" s="0" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1184,6 +1198,9 @@
       <c r="AZ6" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="BA6" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -1342,6 +1359,9 @@
       <c r="AZ7" s="0" t="n">
         <v>1991</v>
       </c>
+      <c r="BA7" s="0" t="n">
+        <v>2184</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -1500,6 +1520,9 @@
       <c r="AZ8" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="BA8" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -1658,6 +1681,9 @@
       <c r="AZ9" s="0" t="n">
         <v>684</v>
       </c>
+      <c r="BA9" s="0" t="n">
+        <v>705</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -1816,6 +1842,9 @@
       <c r="AZ10" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="BA10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -1974,6 +2003,9 @@
       <c r="AZ11" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="BA11" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -2132,6 +2164,9 @@
       <c r="AZ12" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="BA12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -2290,6 +2325,9 @@
       <c r="AZ13" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="BA13" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -2448,6 +2486,9 @@
       <c r="AZ14" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="BA14" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -2604,6 +2645,9 @@
         <v>1</v>
       </c>
       <c r="AZ15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="BW15" s="1"/>
@@ -2765,6 +2809,9 @@
       <c r="AZ16" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="BA16" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -2923,6 +2970,9 @@
       <c r="AZ17" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="BA17" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -3081,6 +3131,9 @@
       <c r="AZ18" s="0" t="n">
         <v>40</v>
       </c>
+      <c r="BA18" s="0" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -3239,6 +3292,9 @@
       <c r="AZ19" s="0" t="n">
         <v>177</v>
       </c>
+      <c r="BA19" s="0" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -3447,6 +3503,10 @@
       <c r="AZ20" s="0" t="n">
         <f aca="false">SUM(AZ2:AZ19)</f>
         <v>3202</v>
+      </c>
+      <c r="BA20" s="0" t="n">
+        <f aca="false">SUM(BA2:BA19)</f>
+        <v>3477</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/COVID19HNHistory.xlsx
+++ b/COVID19HNHistory.xlsx
@@ -189,7 +189,7 @@
   <dimension ref="A1:BW21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BA20" activeCellId="0" sqref="BA2:BA20"/>
+      <selection pane="topLeft" activeCell="BB20" activeCellId="0" sqref="BB2:BB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -378,7 +378,9 @@
       <c r="BA1" s="2" t="n">
         <v>43973</v>
       </c>
-      <c r="BB1" s="2"/>
+      <c r="BB1" s="2" t="n">
+        <v>43974</v>
+      </c>
       <c r="BC1" s="2"/>
       <c r="BD1" s="2"/>
       <c r="BE1" s="2"/>
@@ -557,6 +559,9 @@
       <c r="BA2" s="0" t="n">
         <v>109</v>
       </c>
+      <c r="BB2" s="0" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -716,6 +721,9 @@
         <v>42</v>
       </c>
       <c r="BA3" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB3" s="0" t="n">
         <v>80</v>
       </c>
     </row>
@@ -879,6 +887,9 @@
       <c r="BA4" s="0" t="n">
         <v>42</v>
       </c>
+      <c r="BB4" s="0" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -1040,6 +1051,9 @@
       <c r="BA5" s="0" t="n">
         <v>31</v>
       </c>
+      <c r="BB5" s="0" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1201,6 +1215,9 @@
       <c r="BA6" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="BB6" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -1362,6 +1379,9 @@
       <c r="BA7" s="0" t="n">
         <v>2184</v>
       </c>
+      <c r="BB7" s="0" t="n">
+        <v>2407</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -1523,6 +1543,9 @@
       <c r="BA8" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="BB8" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -1684,6 +1707,9 @@
       <c r="BA9" s="0" t="n">
         <v>705</v>
       </c>
+      <c r="BB9" s="0" t="n">
+        <v>715</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -1845,6 +1871,9 @@
       <c r="BA10" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="BB10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -2006,6 +2035,9 @@
       <c r="BA11" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="BB11" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -2167,6 +2199,9 @@
       <c r="BA12" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="BB12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -2328,6 +2363,9 @@
       <c r="BA13" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="BB13" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -2489,6 +2527,9 @@
       <c r="BA14" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="BB14" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -2649,6 +2690,9 @@
       </c>
       <c r="BA15" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="BB15" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="BW15" s="1"/>
     </row>
@@ -2812,6 +2856,9 @@
       <c r="BA16" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="BB16" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -2973,6 +3020,9 @@
       <c r="BA17" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="BB17" s="0" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -3134,6 +3184,9 @@
       <c r="BA18" s="0" t="n">
         <v>45</v>
       </c>
+      <c r="BB18" s="0" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -3295,6 +3348,9 @@
       <c r="BA19" s="0" t="n">
         <v>185</v>
       </c>
+      <c r="BB19" s="0" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -3507,6 +3563,10 @@
       <c r="BA20" s="0" t="n">
         <f aca="false">SUM(BA2:BA19)</f>
         <v>3477</v>
+      </c>
+      <c r="BB20" s="0" t="n">
+        <f aca="false">SUM(BB2:BB19)</f>
+        <v>3743</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/COVID19HNHistory.xlsx
+++ b/COVID19HNHistory.xlsx
@@ -189,7 +189,7 @@
   <dimension ref="A1:BW21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BB20" activeCellId="0" sqref="BB2:BB20"/>
+      <selection pane="topLeft" activeCell="BD14" activeCellId="0" sqref="BD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -381,7 +381,9 @@
       <c r="BB1" s="2" t="n">
         <v>43974</v>
       </c>
-      <c r="BC1" s="2"/>
+      <c r="BC1" s="2" t="n">
+        <v>43975</v>
+      </c>
       <c r="BD1" s="2"/>
       <c r="BE1" s="2"/>
       <c r="BF1" s="2"/>
@@ -562,6 +564,9 @@
       <c r="BB2" s="0" t="n">
         <v>109</v>
       </c>
+      <c r="BC2" s="0" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -725,6 +730,9 @@
       </c>
       <c r="BB3" s="0" t="n">
         <v>80</v>
+      </c>
+      <c r="BC3" s="0" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -890,6 +898,9 @@
       <c r="BB4" s="0" t="n">
         <v>42</v>
       </c>
+      <c r="BC4" s="0" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -1054,6 +1065,9 @@
       <c r="BB5" s="0" t="n">
         <v>31</v>
       </c>
+      <c r="BC5" s="0" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1218,6 +1232,9 @@
       <c r="BB6" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="BC6" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -1382,6 +1399,9 @@
       <c r="BB7" s="0" t="n">
         <v>2407</v>
       </c>
+      <c r="BC7" s="0" t="n">
+        <v>2543</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -1546,6 +1566,9 @@
       <c r="BB8" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="BC8" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -1710,6 +1733,9 @@
       <c r="BB9" s="0" t="n">
         <v>715</v>
       </c>
+      <c r="BC9" s="0" t="n">
+        <v>771</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -1874,6 +1900,9 @@
       <c r="BB10" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="BC10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -2038,6 +2067,9 @@
       <c r="BB11" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="BC11" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -2202,6 +2234,9 @@
       <c r="BB12" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="BC12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -2366,6 +2401,9 @@
       <c r="BB13" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="BC13" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -2530,6 +2568,9 @@
       <c r="BB14" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="BC14" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -2693,6 +2734,9 @@
       </c>
       <c r="BB15" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="BC15" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="BW15" s="1"/>
     </row>
@@ -2859,6 +2903,9 @@
       <c r="BB16" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="BC16" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -3023,6 +3070,9 @@
       <c r="BB17" s="0" t="n">
         <v>35</v>
       </c>
+      <c r="BC17" s="0" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -3187,6 +3237,9 @@
       <c r="BB18" s="0" t="n">
         <v>45</v>
       </c>
+      <c r="BC18" s="0" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -3351,6 +3404,9 @@
       <c r="BB19" s="0" t="n">
         <v>204</v>
       </c>
+      <c r="BC19" s="0" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -3567,6 +3623,10 @@
       <c r="BB20" s="0" t="n">
         <f aca="false">SUM(BB2:BB19)</f>
         <v>3743</v>
+      </c>
+      <c r="BC20" s="0" t="n">
+        <f aca="false">SUM(BC2:BC19)</f>
+        <v>3950</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/COVID19HNHistory.xlsx
+++ b/COVID19HNHistory.xlsx
@@ -188,8 +188,8 @@
   </sheetPr>
   <dimension ref="A1:BW21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BD14" activeCellId="0" sqref="BD14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AY1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BF20" activeCellId="0" sqref="BF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -384,8 +384,12 @@
       <c r="BC1" s="2" t="n">
         <v>43975</v>
       </c>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
+      <c r="BD1" s="2" t="n">
+        <v>43976</v>
+      </c>
+      <c r="BE1" s="2" t="n">
+        <v>43978</v>
+      </c>
       <c r="BF1" s="2"/>
       <c r="BG1" s="2"/>
       <c r="BH1" s="2"/>
@@ -567,6 +571,12 @@
       <c r="BC2" s="0" t="n">
         <v>109</v>
       </c>
+      <c r="BD2" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="BE2" s="0" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -733,6 +743,12 @@
       </c>
       <c r="BC3" s="0" t="n">
         <v>86</v>
+      </c>
+      <c r="BD3" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="BE3" s="0" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -901,6 +917,12 @@
       <c r="BC4" s="0" t="n">
         <v>42</v>
       </c>
+      <c r="BD4" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="BE4" s="0" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -1068,6 +1090,12 @@
       <c r="BC5" s="0" t="n">
         <v>35</v>
       </c>
+      <c r="BD5" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="BE5" s="0" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1235,6 +1263,12 @@
       <c r="BC6" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="BD6" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="BE6" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -1402,6 +1436,12 @@
       <c r="BC7" s="0" t="n">
         <v>2543</v>
       </c>
+      <c r="BD7" s="0" t="n">
+        <v>2680</v>
+      </c>
+      <c r="BE7" s="0" t="n">
+        <v>2982</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -1569,6 +1609,12 @@
       <c r="BC8" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="BD8" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="BE8" s="0" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -1736,6 +1782,12 @@
       <c r="BC9" s="0" t="n">
         <v>771</v>
       </c>
+      <c r="BD9" s="0" t="n">
+        <v>835</v>
+      </c>
+      <c r="BE9" s="0" t="n">
+        <v>882</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -1903,6 +1955,12 @@
       <c r="BC10" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="BD10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -2070,6 +2128,12 @@
       <c r="BC11" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="BD11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="BE11" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -2237,6 +2301,12 @@
       <c r="BC12" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="BD12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -2404,6 +2474,12 @@
       <c r="BC13" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="BD13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="BE13" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -2571,6 +2647,12 @@
       <c r="BC14" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="BD14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="BE14" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -2736,6 +2818,12 @@
         <v>2</v>
       </c>
       <c r="BC15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="BW15" s="1"/>
@@ -2906,6 +2994,12 @@
       <c r="BC16" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="BD16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="BE16" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -3073,6 +3167,12 @@
       <c r="BC17" s="0" t="n">
         <v>35</v>
       </c>
+      <c r="BD17" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="BE17" s="0" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -3240,6 +3340,12 @@
       <c r="BC18" s="0" t="n">
         <v>45</v>
       </c>
+      <c r="BD18" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="BE18" s="0" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -3407,6 +3513,12 @@
       <c r="BC19" s="0" t="n">
         <v>207</v>
       </c>
+      <c r="BD19" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="BE19" s="0" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -3627,6 +3739,14 @@
       <c r="BC20" s="0" t="n">
         <f aca="false">SUM(BC2:BC19)</f>
         <v>3950</v>
+      </c>
+      <c r="BD20" s="0" t="n">
+        <f aca="false">SUM(BD2:BD19)</f>
+        <v>4189</v>
+      </c>
+      <c r="BE20" s="0" t="n">
+        <f aca="false">SUM(BE2:BE19)</f>
+        <v>4640</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
